--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ltb-Cd40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,13 +88,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ltb</t>
   </si>
   <si>
     <t>Cd40</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H2">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I2">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J2">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.71989661945471</v>
+        <v>4.9459655</v>
       </c>
       <c r="N2">
-        <v>4.71989661945471</v>
+        <v>9.891931</v>
       </c>
       <c r="O2">
-        <v>0.154808567378967</v>
+        <v>0.1555325427700967</v>
       </c>
       <c r="P2">
-        <v>0.154808567378967</v>
+        <v>0.1093959053375544</v>
       </c>
       <c r="Q2">
-        <v>11.34671523991362</v>
+        <v>1.16695357305275</v>
       </c>
       <c r="R2">
-        <v>11.34671523991362</v>
+        <v>4.667814292211</v>
       </c>
       <c r="S2">
-        <v>0.06489435063060592</v>
+        <v>0.005568035821502035</v>
       </c>
       <c r="T2">
-        <v>0.06489435063060592</v>
+        <v>0.002656143658706848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H3">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I3">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J3">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.07382136709106</v>
+        <v>6.441176333333334</v>
       </c>
       <c r="N3">
-        <v>6.07382136709106</v>
+        <v>19.323529</v>
       </c>
       <c r="O3">
-        <v>0.1992161397093813</v>
+        <v>0.2025514600847704</v>
       </c>
       <c r="P3">
-        <v>0.1992161397093813</v>
+        <v>0.2137009396114355</v>
       </c>
       <c r="Q3">
-        <v>14.60157436211965</v>
+        <v>1.519734364674833</v>
       </c>
       <c r="R3">
-        <v>14.60157436211965</v>
+        <v>9.118406188049001</v>
       </c>
       <c r="S3">
-        <v>0.08350960312118243</v>
+        <v>0.007251304231016398</v>
       </c>
       <c r="T3">
-        <v>0.08350960312118243</v>
+        <v>0.005188680452500921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H4">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I4">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J4">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.0488184221915</v>
+        <v>17.27757166666666</v>
       </c>
       <c r="N4">
-        <v>17.0488184221915</v>
+        <v>51.83271499999999</v>
       </c>
       <c r="O4">
-        <v>0.5591866450135353</v>
+        <v>0.543316497903037</v>
       </c>
       <c r="P4">
-        <v>0.5591866450135353</v>
+        <v>0.5732234468202855</v>
       </c>
       <c r="Q4">
-        <v>40.98566206222318</v>
+        <v>4.076478897819166</v>
       </c>
       <c r="R4">
-        <v>40.98566206222318</v>
+        <v>24.45887338691499</v>
       </c>
       <c r="S4">
-        <v>0.2344059816833547</v>
+        <v>0.01945062858779921</v>
       </c>
       <c r="T4">
-        <v>0.2344059816833547</v>
+        <v>0.01391792333173465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>2.40401774758035</v>
+        <v>0.2359405</v>
       </c>
       <c r="H5">
-        <v>2.40401774758035</v>
+        <v>0.471881</v>
       </c>
       <c r="I5">
-        <v>0.4191909513105071</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J5">
-        <v>0.4191909513105071</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.64606444434431</v>
+        <v>3.104087</v>
       </c>
       <c r="N5">
-        <v>2.64606444434431</v>
+        <v>9.312260999999999</v>
       </c>
       <c r="O5">
-        <v>0.08678864789811645</v>
+        <v>0.09761219403766587</v>
       </c>
       <c r="P5">
-        <v>0.08678864789811645</v>
+        <v>0.102985273839314</v>
       </c>
       <c r="Q5">
-        <v>6.361185885445059</v>
+        <v>0.7323798388235</v>
       </c>
       <c r="R5">
-        <v>6.361185885445059</v>
+        <v>4.394279032940999</v>
       </c>
       <c r="S5">
-        <v>0.03638101587536408</v>
+        <v>0.003494498214566758</v>
       </c>
       <c r="T5">
-        <v>0.03638101587536408</v>
+        <v>0.002500492876807682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>2.87062265074311</v>
+        <v>0.2359405</v>
       </c>
       <c r="H6">
-        <v>2.87062265074311</v>
+        <v>0.471881</v>
       </c>
       <c r="I6">
-        <v>0.5005533095708872</v>
+        <v>0.03579981219578291</v>
       </c>
       <c r="J6">
-        <v>0.5005533095708872</v>
+        <v>0.02428010125708996</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>4.71989661945471</v>
+        <v>0.0313965</v>
       </c>
       <c r="N6">
-        <v>4.71989661945471</v>
+        <v>0.062793</v>
       </c>
       <c r="O6">
-        <v>0.154808567378967</v>
+        <v>0.000987305204430023</v>
       </c>
       <c r="P6">
-        <v>0.154808567378967</v>
+        <v>0.0006944343914106408</v>
       </c>
       <c r="Q6">
-        <v>13.54904214497252</v>
+        <v>0.00740770590825</v>
       </c>
       <c r="R6">
-        <v>13.54904214497252</v>
+        <v>0.029630823633</v>
       </c>
       <c r="S6">
-        <v>0.07748994075146962</v>
+        <v>3.534534089851388E-05</v>
       </c>
       <c r="T6">
-        <v>0.07748994075146962</v>
+        <v>1.6860937339856E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H7">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I7">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J7">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.07382136709106</v>
+        <v>4.9459655</v>
       </c>
       <c r="N7">
-        <v>6.07382136709106</v>
+        <v>9.891931</v>
       </c>
       <c r="O7">
-        <v>0.1992161397093813</v>
+        <v>0.1555325427700967</v>
       </c>
       <c r="P7">
-        <v>0.1992161397093813</v>
+        <v>0.1093959053375544</v>
       </c>
       <c r="Q7">
-        <v>17.43564919293908</v>
+        <v>13.3950742822365</v>
       </c>
       <c r="R7">
-        <v>17.43564919293908</v>
+        <v>80.37044569341899</v>
       </c>
       <c r="S7">
-        <v>0.09971829805146702</v>
+        <v>0.0639136424597091</v>
       </c>
       <c r="T7">
-        <v>0.09971829805146702</v>
+        <v>0.04573349244682595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H8">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I8">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J8">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0488184221915</v>
+        <v>6.441176333333334</v>
       </c>
       <c r="N8">
-        <v>17.0488184221915</v>
+        <v>19.323529</v>
       </c>
       <c r="O8">
-        <v>0.5591866450135353</v>
+        <v>0.2025514600847704</v>
       </c>
       <c r="P8">
-        <v>0.5591866450135353</v>
+        <v>0.2137009396114355</v>
       </c>
       <c r="Q8">
-        <v>48.94072433114933</v>
+        <v>17.444528363569</v>
       </c>
       <c r="R8">
-        <v>48.94072433114933</v>
+        <v>157.000755272121</v>
       </c>
       <c r="S8">
-        <v>0.2799027258293659</v>
+        <v>0.08323532406131963</v>
       </c>
       <c r="T8">
-        <v>0.2799027258293659</v>
+        <v>0.08933872138488656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.87062265074311</v>
+        <v>2.708283</v>
       </c>
       <c r="H9">
-        <v>2.87062265074311</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I9">
-        <v>0.5005533095708872</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J9">
-        <v>0.5005533095708872</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.64606444434431</v>
+        <v>17.27757166666666</v>
       </c>
       <c r="N9">
-        <v>2.64606444434431</v>
+        <v>51.83271499999999</v>
       </c>
       <c r="O9">
-        <v>0.08678864789811645</v>
+        <v>0.543316497903037</v>
       </c>
       <c r="P9">
-        <v>0.08678864789811645</v>
+        <v>0.5732234468202855</v>
       </c>
       <c r="Q9">
-        <v>7.595852529260759</v>
+        <v>46.79255362611499</v>
       </c>
       <c r="R9">
-        <v>7.595852529260759</v>
+        <v>421.1329826350349</v>
       </c>
       <c r="S9">
-        <v>0.04344234493858461</v>
+        <v>0.2232673353818043</v>
       </c>
       <c r="T9">
-        <v>0.04344234493858461</v>
+        <v>0.2396388612042464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.460258554205749</v>
+        <v>2.708283</v>
       </c>
       <c r="H10">
-        <v>0.460258554205749</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I10">
-        <v>0.08025573911860565</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J10">
-        <v>0.08025573911860565</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.71989661945471</v>
+        <v>3.104087</v>
       </c>
       <c r="N10">
-        <v>4.71989661945471</v>
+        <v>9.312260999999999</v>
       </c>
       <c r="O10">
-        <v>0.154808567378967</v>
+        <v>0.09761219403766587</v>
       </c>
       <c r="P10">
-        <v>0.154808567378967</v>
+        <v>0.102985273839314</v>
       </c>
       <c r="Q10">
-        <v>2.172372794070827</v>
+        <v>8.406746052620999</v>
       </c>
       <c r="R10">
-        <v>2.172372794070827</v>
+        <v>75.660714473589</v>
       </c>
       <c r="S10">
-        <v>0.01242427599689146</v>
+        <v>0.04011218975988228</v>
       </c>
       <c r="T10">
-        <v>0.01242427599689146</v>
+        <v>0.04305349664351397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.460258554205749</v>
+        <v>2.708283</v>
       </c>
       <c r="H11">
-        <v>0.460258554205749</v>
+        <v>8.124848999999999</v>
       </c>
       <c r="I11">
-        <v>0.08025573911860565</v>
+        <v>0.4109342091460836</v>
       </c>
       <c r="J11">
-        <v>0.08025573911860565</v>
+        <v>0.4180548833679807</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>6.07382136709106</v>
+        <v>0.0313965</v>
       </c>
       <c r="N11">
-        <v>6.07382136709106</v>
+        <v>0.062793</v>
       </c>
       <c r="O11">
-        <v>0.1992161397093813</v>
+        <v>0.000987305204430023</v>
       </c>
       <c r="P11">
-        <v>0.1992161397093813</v>
+        <v>0.0006944343914106408</v>
       </c>
       <c r="Q11">
-        <v>2.795528240921318</v>
+        <v>0.08503060720949999</v>
       </c>
       <c r="R11">
-        <v>2.795528240921318</v>
+        <v>0.5101836432569999</v>
       </c>
       <c r="S11">
-        <v>0.0159882385367318</v>
+        <v>0.0004057174833682639</v>
       </c>
       <c r="T11">
-        <v>0.0159882385367318</v>
+        <v>0.0002903116885078902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.460258554205749</v>
+        <v>2.895335666666667</v>
       </c>
       <c r="H12">
-        <v>0.460258554205749</v>
+        <v>8.686007</v>
       </c>
       <c r="I12">
-        <v>0.08025573911860565</v>
+        <v>0.4393161543288184</v>
       </c>
       <c r="J12">
-        <v>0.08025573911860565</v>
+        <v>0.4469286313282209</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.0488184221915</v>
+        <v>4.9459655</v>
       </c>
       <c r="N12">
-        <v>17.0488184221915</v>
+        <v>9.891931</v>
       </c>
       <c r="O12">
-        <v>0.5591866450135353</v>
+        <v>0.1555325427700967</v>
       </c>
       <c r="P12">
-        <v>0.5591866450135353</v>
+        <v>0.1093959053375544</v>
       </c>
       <c r="Q12">
-        <v>7.846864517914198</v>
+        <v>14.32023031825283</v>
       </c>
       <c r="R12">
-        <v>7.846864517914198</v>
+        <v>85.921381909517</v>
       </c>
       <c r="S12">
-        <v>0.04487793750081463</v>
+        <v>0.06832795856274135</v>
       </c>
       <c r="T12">
-        <v>0.04487793750081463</v>
+        <v>0.04889216224542479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.686007</v>
+      </c>
+      <c r="I13">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J13">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.441176333333334</v>
+      </c>
+      <c r="N13">
+        <v>19.323529</v>
+      </c>
+      <c r="O13">
+        <v>0.2025514600847704</v>
+      </c>
+      <c r="P13">
+        <v>0.2137009396114355</v>
+      </c>
+      <c r="Q13">
+        <v>18.64936757318922</v>
+      </c>
+      <c r="R13">
+        <v>167.844308158703</v>
+      </c>
+      <c r="S13">
+        <v>0.08898412849812849</v>
+      </c>
+      <c r="T13">
+        <v>0.09550906845409365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H14">
+        <v>8.686007</v>
+      </c>
+      <c r="I14">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J14">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>17.27757166666666</v>
+      </c>
+      <c r="N14">
+        <v>51.83271499999999</v>
+      </c>
+      <c r="O14">
+        <v>0.543316497903037</v>
+      </c>
+      <c r="P14">
+        <v>0.5732234468202855</v>
+      </c>
+      <c r="Q14">
+        <v>50.02436947988943</v>
+      </c>
+      <c r="R14">
+        <v>450.219325319005</v>
+      </c>
+      <c r="S14">
+        <v>0.2386877144421638</v>
+      </c>
+      <c r="T14">
+        <v>0.2561899705326354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H15">
+        <v>8.686007</v>
+      </c>
+      <c r="I15">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J15">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.104087</v>
+      </c>
+      <c r="N15">
+        <v>9.312260999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.09761219403766587</v>
+      </c>
+      <c r="P15">
+        <v>0.102985273839314</v>
+      </c>
+      <c r="Q15">
+        <v>8.987373803536332</v>
+      </c>
+      <c r="R15">
+        <v>80.886364231827</v>
+      </c>
+      <c r="S15">
+        <v>0.04288261370022579</v>
+      </c>
+      <c r="T15">
+        <v>0.04602706748396664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.895335666666667</v>
+      </c>
+      <c r="H16">
+        <v>8.686007</v>
+      </c>
+      <c r="I16">
+        <v>0.4393161543288184</v>
+      </c>
+      <c r="J16">
+        <v>0.4469286313282209</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0313965</v>
+      </c>
+      <c r="N16">
+        <v>0.062793</v>
+      </c>
+      <c r="O16">
+        <v>0.000987305204430023</v>
+      </c>
+      <c r="P16">
+        <v>0.0006944343914106408</v>
+      </c>
+      <c r="Q16">
+        <v>0.09090340625849999</v>
+      </c>
+      <c r="R16">
+        <v>0.545420437551</v>
+      </c>
+      <c r="S16">
+        <v>0.0004337391255590256</v>
+      </c>
+      <c r="T16">
+        <v>0.0003103626121004037</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.950494</v>
+      </c>
+      <c r="I17">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J17">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.9459655</v>
+      </c>
+      <c r="N17">
+        <v>9.891931</v>
+      </c>
+      <c r="O17">
+        <v>0.1555325427700967</v>
+      </c>
+      <c r="P17">
+        <v>0.1093959053375544</v>
+      </c>
+      <c r="Q17">
+        <v>3.215692010652333</v>
+      </c>
+      <c r="R17">
+        <v>19.294152063914</v>
+      </c>
+      <c r="S17">
+        <v>0.01534344529182116</v>
+      </c>
+      <c r="T17">
+        <v>0.01097902282449549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.950494</v>
+      </c>
+      <c r="I18">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J18">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.441176333333334</v>
+      </c>
+      <c r="N18">
+        <v>19.323529</v>
+      </c>
+      <c r="O18">
+        <v>0.2025514600847704</v>
+      </c>
+      <c r="P18">
+        <v>0.2137009396114355</v>
+      </c>
+      <c r="Q18">
+        <v>4.18782526370289</v>
+      </c>
+      <c r="R18">
+        <v>37.690427373326</v>
+      </c>
+      <c r="S18">
+        <v>0.01998190983852864</v>
+      </c>
+      <c r="T18">
+        <v>0.02144712351317458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="H13">
-        <v>0.460258554205749</v>
-      </c>
-      <c r="I13">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="J13">
-        <v>0.08025573911860565</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.64606444434431</v>
-      </c>
-      <c r="N13">
-        <v>2.64606444434431</v>
-      </c>
-      <c r="O13">
-        <v>0.08678864789811645</v>
-      </c>
-      <c r="P13">
-        <v>0.08678864789811645</v>
-      </c>
-      <c r="Q13">
-        <v>1.217873795489151</v>
-      </c>
-      <c r="R13">
-        <v>1.217873795489151</v>
-      </c>
-      <c r="S13">
-        <v>0.006965287084167757</v>
-      </c>
-      <c r="T13">
-        <v>0.006965287084167757</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.950494</v>
+      </c>
+      <c r="I19">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J19">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>17.27757166666666</v>
+      </c>
+      <c r="N19">
+        <v>51.83271499999999</v>
+      </c>
+      <c r="O19">
+        <v>0.543316497903037</v>
+      </c>
+      <c r="P19">
+        <v>0.5732234468202855</v>
+      </c>
+      <c r="Q19">
+        <v>11.23326662346778</v>
+      </c>
+      <c r="R19">
+        <v>101.09939961121</v>
+      </c>
+      <c r="S19">
+        <v>0.05359873125742978</v>
+      </c>
+      <c r="T19">
+        <v>0.0575289658854848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.950494</v>
+      </c>
+      <c r="I20">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J20">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.104087</v>
+      </c>
+      <c r="N20">
+        <v>9.312260999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.09761219403766587</v>
+      </c>
+      <c r="P20">
+        <v>0.102985273839314</v>
+      </c>
+      <c r="Q20">
+        <v>2.018167689659333</v>
+      </c>
+      <c r="R20">
+        <v>18.163509206934</v>
+      </c>
+      <c r="S20">
+        <v>0.009629543324868171</v>
+      </c>
+      <c r="T20">
+        <v>0.01033564893109942</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6501646666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.950494</v>
+      </c>
+      <c r="I21">
+        <v>0.09865102838639601</v>
+      </c>
+      <c r="J21">
+        <v>0.1003604549056784</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0313965</v>
+      </c>
+      <c r="N21">
+        <v>0.062793</v>
+      </c>
+      <c r="O21">
+        <v>0.000987305204430023</v>
+      </c>
+      <c r="P21">
+        <v>0.0006944343914106408</v>
+      </c>
+      <c r="Q21">
+        <v>0.020412894957</v>
+      </c>
+      <c r="R21">
+        <v>0.122477369742</v>
+      </c>
+      <c r="S21">
+        <v>9.739867374826272E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.969375142411985E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.1008275</v>
+      </c>
+      <c r="H22">
+        <v>0.201655</v>
+      </c>
+      <c r="I22">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J22">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.9459655</v>
+      </c>
+      <c r="N22">
+        <v>9.891931</v>
+      </c>
+      <c r="O22">
+        <v>0.1555325427700967</v>
+      </c>
+      <c r="P22">
+        <v>0.1093959053375544</v>
+      </c>
+      <c r="Q22">
+        <v>0.49868933645125</v>
+      </c>
+      <c r="R22">
+        <v>1.994757345805</v>
+      </c>
+      <c r="S22">
+        <v>0.002379460634323045</v>
+      </c>
+      <c r="T22">
+        <v>0.001135084162101313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.1008275</v>
+      </c>
+      <c r="H23">
+        <v>0.201655</v>
+      </c>
+      <c r="I23">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J23">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.441176333333334</v>
+      </c>
+      <c r="N23">
+        <v>19.323529</v>
+      </c>
+      <c r="O23">
+        <v>0.2025514600847704</v>
+      </c>
+      <c r="P23">
+        <v>0.2137009396114355</v>
+      </c>
+      <c r="Q23">
+        <v>0.6494477067491667</v>
+      </c>
+      <c r="R23">
+        <v>3.896686240495</v>
+      </c>
+      <c r="S23">
+        <v>0.003098793455777223</v>
+      </c>
+      <c r="T23">
+        <v>0.00221734580677983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.1008275</v>
+      </c>
+      <c r="H24">
+        <v>0.201655</v>
+      </c>
+      <c r="I24">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J24">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>17.27757166666666</v>
+      </c>
+      <c r="N24">
+        <v>51.83271499999999</v>
+      </c>
+      <c r="O24">
+        <v>0.543316497903037</v>
+      </c>
+      <c r="P24">
+        <v>0.5732234468202855</v>
+      </c>
+      <c r="Q24">
+        <v>1.742054357220833</v>
+      </c>
+      <c r="R24">
+        <v>10.452326143325</v>
+      </c>
+      <c r="S24">
+        <v>0.008312088233839991</v>
+      </c>
+      <c r="T24">
+        <v>0.00594772586618438</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.1008275</v>
+      </c>
+      <c r="H25">
+        <v>0.201655</v>
+      </c>
+      <c r="I25">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J25">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.104087</v>
+      </c>
+      <c r="N25">
+        <v>9.312260999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.09761219403766587</v>
+      </c>
+      <c r="P25">
+        <v>0.102985273839314</v>
+      </c>
+      <c r="Q25">
+        <v>0.3129773319925</v>
+      </c>
+      <c r="R25">
+        <v>1.877863991955</v>
+      </c>
+      <c r="S25">
+        <v>0.001493349038122874</v>
+      </c>
+      <c r="T25">
+        <v>0.001068567903926314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.1008275</v>
+      </c>
+      <c r="H26">
+        <v>0.201655</v>
+      </c>
+      <c r="I26">
+        <v>0.01529879594291909</v>
+      </c>
+      <c r="J26">
+        <v>0.01037592914103021</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0313965</v>
+      </c>
+      <c r="N26">
+        <v>0.062793</v>
+      </c>
+      <c r="O26">
+        <v>0.000987305204430023</v>
+      </c>
+      <c r="P26">
+        <v>0.0006944343914106408</v>
+      </c>
+      <c r="Q26">
+        <v>0.00316563060375</v>
+      </c>
+      <c r="R26">
+        <v>0.012662522415</v>
+      </c>
+      <c r="S26">
+        <v>1.510458085595694E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.205402038371247E-06</v>
       </c>
     </row>
   </sheetData>
